--- a/BalanceSheet/Z_bal.xlsx
+++ b/BalanceSheet/Z_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-297988000.0</v>
+        <v>491000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-57880000.0</v>
+        <v>193000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>398552000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>302593000.0</v>
+        <v>534000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>42726000.0</v>
+        <v>837000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>879353000.0</v>
@@ -1958,19 +1958,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>733000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4735000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-169000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>7673000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-3495000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>9717000.0</v>
